--- a/Journal de bord v2.xlsx
+++ b/Journal de bord v2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
   <si>
     <t>Date</t>
   </si>
@@ -63,6 +63,27 @@
   </si>
   <si>
     <t>Compréhension et mise en place d'un repository GIT</t>
+  </si>
+  <si>
+    <t>Analyse préliminaire : Introduction</t>
+  </si>
+  <si>
+    <t>Analyse préliminaire : Organisation</t>
+  </si>
+  <si>
+    <t>Analyse préliminaire : Objectif</t>
+  </si>
+  <si>
+    <t>Analyse : Définition de l'audience</t>
+  </si>
+  <si>
+    <t>Analyse : MCD</t>
+  </si>
+  <si>
+    <t>Use cases</t>
+  </si>
+  <si>
+    <t>Changement du design de ma documentation</t>
   </si>
 </sst>
 </file>
@@ -487,10 +508,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E9"/>
+  <dimension ref="A2:E279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -602,6 +623,1145 @@
         <v>12</v>
       </c>
     </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43137</v>
+      </c>
+      <c r="B10" s="4">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="4">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="4">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="4">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="4">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" s="4">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B137" s="4"/>
+      <c r="C137" s="4"/>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B138" s="4"/>
+      <c r="C138" s="4"/>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B139" s="4"/>
+      <c r="C139" s="4"/>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B140" s="4"/>
+      <c r="C140" s="4"/>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B141" s="4"/>
+      <c r="C141" s="4"/>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B142" s="4"/>
+      <c r="C142" s="4"/>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B143" s="4"/>
+      <c r="C143" s="4"/>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B144" s="4"/>
+      <c r="C144" s="4"/>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B145" s="4"/>
+      <c r="C145" s="4"/>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B146" s="4"/>
+      <c r="C146" s="4"/>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B147" s="4"/>
+      <c r="C147" s="4"/>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B148" s="4"/>
+      <c r="C148" s="4"/>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B149" s="4"/>
+      <c r="C149" s="4"/>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B150" s="4"/>
+      <c r="C150" s="4"/>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B151" s="4"/>
+      <c r="C151" s="4"/>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B152" s="4"/>
+      <c r="C152" s="4"/>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B153" s="4"/>
+      <c r="C153" s="4"/>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B154" s="4"/>
+      <c r="C154" s="4"/>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B155" s="4"/>
+      <c r="C155" s="4"/>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B156" s="4"/>
+      <c r="C156" s="4"/>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B157" s="4"/>
+      <c r="C157" s="4"/>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B158" s="4"/>
+      <c r="C158" s="4"/>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B159" s="4"/>
+      <c r="C159" s="4"/>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B160" s="4"/>
+      <c r="C160" s="4"/>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B161" s="4"/>
+      <c r="C161" s="4"/>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B162" s="4"/>
+      <c r="C162" s="4"/>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B163" s="4"/>
+      <c r="C163" s="4"/>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B164" s="4"/>
+      <c r="C164" s="4"/>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B165" s="4"/>
+      <c r="C165" s="4"/>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B166" s="4"/>
+      <c r="C166" s="4"/>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B167" s="4"/>
+      <c r="C167" s="4"/>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B168" s="4"/>
+      <c r="C168" s="4"/>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B169" s="4"/>
+      <c r="C169" s="4"/>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B170" s="4"/>
+      <c r="C170" s="4"/>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B171" s="4"/>
+      <c r="C171" s="4"/>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B172" s="4"/>
+      <c r="C172" s="4"/>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B173" s="4"/>
+      <c r="C173" s="4"/>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B174" s="4"/>
+      <c r="C174" s="4"/>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B175" s="4"/>
+      <c r="C175" s="4"/>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B176" s="4"/>
+      <c r="C176" s="4"/>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B177" s="4"/>
+      <c r="C177" s="4"/>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B178" s="4"/>
+      <c r="C178" s="4"/>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B179" s="4"/>
+      <c r="C179" s="4"/>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B180" s="4"/>
+      <c r="C180" s="4"/>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B181" s="4"/>
+      <c r="C181" s="4"/>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B182" s="4"/>
+      <c r="C182" s="4"/>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B183" s="4"/>
+      <c r="C183" s="4"/>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B184" s="4"/>
+      <c r="C184" s="4"/>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B185" s="4"/>
+      <c r="C185" s="4"/>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B186" s="4"/>
+      <c r="C186" s="4"/>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B187" s="4"/>
+      <c r="C187" s="4"/>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B188" s="4"/>
+      <c r="C188" s="4"/>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B189" s="4"/>
+      <c r="C189" s="4"/>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B190" s="4"/>
+      <c r="C190" s="4"/>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B191" s="4"/>
+      <c r="C191" s="4"/>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B192" s="4"/>
+      <c r="C192" s="4"/>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B193" s="4"/>
+      <c r="C193" s="4"/>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B194" s="4"/>
+      <c r="C194" s="4"/>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B195" s="4"/>
+      <c r="C195" s="4"/>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B196" s="4"/>
+      <c r="C196" s="4"/>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B197" s="4"/>
+      <c r="C197" s="4"/>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B198" s="4"/>
+      <c r="C198" s="4"/>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B199" s="4"/>
+      <c r="C199" s="4"/>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B200" s="4"/>
+      <c r="C200" s="4"/>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B201" s="4"/>
+      <c r="C201" s="4"/>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B202" s="4"/>
+      <c r="C202" s="4"/>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B203" s="4"/>
+      <c r="C203" s="4"/>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B204" s="4"/>
+      <c r="C204" s="4"/>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B205" s="4"/>
+      <c r="C205" s="4"/>
+    </row>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B206" s="4"/>
+      <c r="C206" s="4"/>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B207" s="4"/>
+      <c r="C207" s="4"/>
+    </row>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B208" s="4"/>
+      <c r="C208" s="4"/>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B209" s="4"/>
+      <c r="C209" s="4"/>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B210" s="4"/>
+      <c r="C210" s="4"/>
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B211" s="4"/>
+      <c r="C211" s="4"/>
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B212" s="4"/>
+      <c r="C212" s="4"/>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B213" s="4"/>
+      <c r="C213" s="4"/>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B214" s="4"/>
+      <c r="C214" s="4"/>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B215" s="4"/>
+      <c r="C215" s="4"/>
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B216" s="4"/>
+      <c r="C216" s="4"/>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B217" s="4"/>
+      <c r="C217" s="4"/>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B218" s="4"/>
+      <c r="C218" s="4"/>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B219" s="4"/>
+      <c r="C219" s="4"/>
+    </row>
+    <row r="220" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B220" s="4"/>
+      <c r="C220" s="4"/>
+    </row>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B221" s="4"/>
+      <c r="C221" s="4"/>
+    </row>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B222" s="4"/>
+      <c r="C222" s="4"/>
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B223" s="4"/>
+      <c r="C223" s="4"/>
+    </row>
+    <row r="224" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B224" s="4"/>
+      <c r="C224" s="4"/>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B225" s="4"/>
+      <c r="C225" s="4"/>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B226" s="4"/>
+      <c r="C226" s="4"/>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B227" s="4"/>
+      <c r="C227" s="4"/>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B228" s="4"/>
+      <c r="C228" s="4"/>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B229" s="4"/>
+      <c r="C229" s="4"/>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B230" s="4"/>
+      <c r="C230" s="4"/>
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B231" s="4"/>
+      <c r="C231" s="4"/>
+    </row>
+    <row r="232" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B232" s="4"/>
+      <c r="C232" s="4"/>
+    </row>
+    <row r="233" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B233" s="4"/>
+      <c r="C233" s="4"/>
+    </row>
+    <row r="234" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B234" s="4"/>
+      <c r="C234" s="4"/>
+    </row>
+    <row r="235" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B235" s="4"/>
+      <c r="C235" s="4"/>
+    </row>
+    <row r="236" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B236" s="4"/>
+      <c r="C236" s="4"/>
+    </row>
+    <row r="237" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B237" s="4"/>
+      <c r="C237" s="4"/>
+    </row>
+    <row r="238" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B238" s="4"/>
+      <c r="C238" s="4"/>
+    </row>
+    <row r="239" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B239" s="4"/>
+      <c r="C239" s="4"/>
+    </row>
+    <row r="240" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B240" s="4"/>
+      <c r="C240" s="4"/>
+    </row>
+    <row r="241" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B241" s="4"/>
+      <c r="C241" s="4"/>
+    </row>
+    <row r="242" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B242" s="4"/>
+      <c r="C242" s="4"/>
+    </row>
+    <row r="243" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B243" s="4"/>
+      <c r="C243" s="4"/>
+    </row>
+    <row r="244" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B244" s="4"/>
+      <c r="C244" s="4"/>
+    </row>
+    <row r="245" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B245" s="4"/>
+      <c r="C245" s="4"/>
+    </row>
+    <row r="246" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B246" s="4"/>
+      <c r="C246" s="4"/>
+    </row>
+    <row r="247" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B247" s="4"/>
+      <c r="C247" s="4"/>
+    </row>
+    <row r="248" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B248" s="4"/>
+      <c r="C248" s="4"/>
+    </row>
+    <row r="249" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B249" s="4"/>
+      <c r="C249" s="4"/>
+    </row>
+    <row r="250" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B250" s="4"/>
+      <c r="C250" s="4"/>
+    </row>
+    <row r="251" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B251" s="4"/>
+      <c r="C251" s="4"/>
+    </row>
+    <row r="252" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B252" s="4"/>
+      <c r="C252" s="4"/>
+    </row>
+    <row r="253" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B253" s="4"/>
+      <c r="C253" s="4"/>
+    </row>
+    <row r="254" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B254" s="4"/>
+      <c r="C254" s="4"/>
+    </row>
+    <row r="255" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B255" s="4"/>
+      <c r="C255" s="4"/>
+    </row>
+    <row r="256" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B256" s="4"/>
+      <c r="C256" s="4"/>
+    </row>
+    <row r="257" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B257" s="4"/>
+      <c r="C257" s="4"/>
+    </row>
+    <row r="258" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B258" s="4"/>
+      <c r="C258" s="4"/>
+    </row>
+    <row r="259" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B259" s="4"/>
+      <c r="C259" s="4"/>
+    </row>
+    <row r="260" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B260" s="4"/>
+      <c r="C260" s="4"/>
+    </row>
+    <row r="261" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B261" s="4"/>
+      <c r="C261" s="4"/>
+    </row>
+    <row r="262" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B262" s="4"/>
+      <c r="C262" s="4"/>
+    </row>
+    <row r="263" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B263" s="4"/>
+      <c r="C263" s="4"/>
+    </row>
+    <row r="264" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B264" s="4"/>
+      <c r="C264" s="4"/>
+    </row>
+    <row r="265" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B265" s="4"/>
+      <c r="C265" s="4"/>
+    </row>
+    <row r="266" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B266" s="4"/>
+      <c r="C266" s="4"/>
+    </row>
+    <row r="267" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B267" s="4"/>
+      <c r="C267" s="4"/>
+    </row>
+    <row r="268" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B268" s="4"/>
+      <c r="C268" s="4"/>
+    </row>
+    <row r="269" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B269" s="4"/>
+      <c r="C269" s="4"/>
+    </row>
+    <row r="270" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B270" s="4"/>
+      <c r="C270" s="4"/>
+    </row>
+    <row r="271" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B271" s="4"/>
+      <c r="C271" s="4"/>
+    </row>
+    <row r="272" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B272" s="4"/>
+      <c r="C272" s="4"/>
+    </row>
+    <row r="273" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B273" s="4"/>
+      <c r="C273" s="4"/>
+    </row>
+    <row r="274" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B274" s="4"/>
+      <c r="C274" s="4"/>
+    </row>
+    <row r="275" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B275" s="4"/>
+      <c r="C275" s="4"/>
+    </row>
+    <row r="276" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B276" s="4"/>
+      <c r="C276" s="4"/>
+    </row>
+    <row r="277" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B277" s="4"/>
+      <c r="C277" s="4"/>
+    </row>
+    <row r="278" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B278" s="4"/>
+      <c r="C278" s="4"/>
+    </row>
+    <row r="279" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B279" s="4"/>
+      <c r="C279" s="4"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B2:C2"/>

--- a/Journal de bord v2.xlsx
+++ b/Journal de bord v2.xlsx
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_Toc505691331" localSheetId="0">Feuil1!$D$21</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>Date</t>
   </si>
@@ -84,6 +87,24 @@
   </si>
   <si>
     <t>Changement du design de ma documentation</t>
+  </si>
+  <si>
+    <t>Planification initial et détaillée</t>
+  </si>
+  <si>
+    <t>Analyse de l'environnement</t>
+  </si>
+  <si>
+    <t>Détermination de l’arborescence du site et des rubriques</t>
+  </si>
+  <si>
+    <t>Correction du MCD et création du MLD</t>
+  </si>
+  <si>
+    <t>MCD et MLD</t>
+  </si>
+  <si>
+    <t>Maquettes</t>
   </si>
 </sst>
 </file>
@@ -510,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,7 +724,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B17" s="4">
         <v>0.63888888888888895</v>
       </c>
@@ -714,63 +735,122 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43139</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" s="4">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="4">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="4">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
     </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.59375</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="4">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.65625</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="4">
+        <v>0.65625</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
     </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
     </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
     </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
     </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
     </row>

--- a/Journal de bord v2.xlsx
+++ b/Journal de bord v2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -105,6 +105,12 @@
   </si>
   <si>
     <t>Maquettes</t>
+  </si>
+  <si>
+    <t>Recréation d'une maquette, et finition des autres</t>
+  </si>
+  <si>
+    <t>J'ai eu un problème avec Pencil. Les fichiers se sont enregistrés les uns sur les autres et cela m'a fait perdre beaucoup de temps.</t>
   </si>
 </sst>
 </file>
@@ -215,7 +221,6 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -247,6 +252,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -531,1316 +539,1329 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="11.42578125" style="5"/>
-    <col min="4" max="4" width="69.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="46.5703125" style="2" customWidth="1"/>
+    <col min="1" max="3" width="11.42578125" style="4"/>
+    <col min="4" max="4" width="69.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="A4" s="12">
         <v>43132</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="3">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="4">
+      <c r="A5" s="12"/>
+      <c r="B5" s="3">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>0.69444444444444453</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>0.69444444444444453</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>0.70138888888888884</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="4">
+      <c r="B8" s="3">
         <v>0.70138888888888884</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="3">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+      <c r="A9" s="12">
         <v>43133</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="3">
         <v>0.5625</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="3">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+      <c r="A10" s="12">
         <v>43137</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="3">
         <v>0.44444444444444442</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>0.4513888888888889</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="4">
+      <c r="B11" s="3">
         <v>0.4513888888888889</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="4">
+      <c r="B12" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>0.47222222222222227</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="4">
+      <c r="B13" s="3">
         <v>0.47222222222222227</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="3">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="4">
+      <c r="B15" s="3">
         <v>0.5625</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="3">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="1" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="4">
+      <c r="B16" s="3">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="3">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="3">
         <v>0.63888888888888895</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>0.67013888888888884</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
         <v>43139</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="3">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>0.34722222222222227</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="3">
         <v>0.34722222222222227</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>0.36805555555555558</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B20" s="4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="3">
         <v>0.36805555555555558</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>0.375</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="3">
         <v>0.375</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>0.3888888888888889</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B22" s="4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="3">
         <v>0.3888888888888889</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B24" s="4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="3">
         <v>0.5625</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>0.59375</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B25" s="4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="3">
         <v>0.62847222222222221</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>0.65625</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="4">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="3">
         <v>0.65625</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26" s="3">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>43140</v>
+      </c>
+      <c r="B27" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
     </row>
     <row r="104" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
     </row>
     <row r="105" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
     </row>
     <row r="106" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
     </row>
     <row r="107" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
     </row>
     <row r="108" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
     </row>
     <row r="109" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
     </row>
     <row r="110" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
     </row>
     <row r="111" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
     </row>
     <row r="112" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
     </row>
     <row r="115" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
     </row>
     <row r="117" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
     </row>
     <row r="119" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
     </row>
     <row r="121" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
     </row>
     <row r="124" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
     </row>
     <row r="127" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
     </row>
     <row r="130" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
     </row>
     <row r="133" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
     </row>
     <row r="136" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B136" s="4"/>
-      <c r="C136" s="4"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
     </row>
     <row r="138" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
     </row>
     <row r="140" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
     </row>
     <row r="145" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
     </row>
     <row r="146" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
     </row>
     <row r="147" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
     </row>
     <row r="148" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
     </row>
     <row r="149" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
     </row>
     <row r="150" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
     </row>
     <row r="151" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
     </row>
     <row r="152" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
     </row>
     <row r="153" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B153" s="4"/>
-      <c r="C153" s="4"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
     </row>
     <row r="154" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B154" s="4"/>
-      <c r="C154" s="4"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
     </row>
     <row r="155" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
     </row>
     <row r="156" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B156" s="4"/>
-      <c r="C156" s="4"/>
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
     </row>
     <row r="157" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
     </row>
     <row r="158" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B158" s="4"/>
-      <c r="C158" s="4"/>
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
     </row>
     <row r="159" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B159" s="4"/>
-      <c r="C159" s="4"/>
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
     </row>
     <row r="160" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B160" s="4"/>
-      <c r="C160" s="4"/>
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
     </row>
     <row r="161" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B161" s="4"/>
-      <c r="C161" s="4"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
     </row>
     <row r="162" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B162" s="4"/>
-      <c r="C162" s="4"/>
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
     </row>
     <row r="163" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B163" s="4"/>
-      <c r="C163" s="4"/>
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
     </row>
     <row r="164" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B164" s="4"/>
-      <c r="C164" s="4"/>
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
     </row>
     <row r="165" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B165" s="4"/>
-      <c r="C165" s="4"/>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
     </row>
     <row r="166" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B166" s="4"/>
-      <c r="C166" s="4"/>
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
     </row>
     <row r="167" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B167" s="4"/>
-      <c r="C167" s="4"/>
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
     </row>
     <row r="168" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B168" s="4"/>
-      <c r="C168" s="4"/>
+      <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
     </row>
     <row r="169" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B169" s="4"/>
-      <c r="C169" s="4"/>
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
     </row>
     <row r="170" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B170" s="4"/>
-      <c r="C170" s="4"/>
+      <c r="B170" s="3"/>
+      <c r="C170" s="3"/>
     </row>
     <row r="171" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B171" s="4"/>
-      <c r="C171" s="4"/>
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
     </row>
     <row r="172" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B172" s="4"/>
-      <c r="C172" s="4"/>
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
     </row>
     <row r="173" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B173" s="4"/>
-      <c r="C173" s="4"/>
+      <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
     </row>
     <row r="174" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B174" s="4"/>
-      <c r="C174" s="4"/>
+      <c r="B174" s="3"/>
+      <c r="C174" s="3"/>
     </row>
     <row r="175" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
+      <c r="B175" s="3"/>
+      <c r="C175" s="3"/>
     </row>
     <row r="176" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
+      <c r="B176" s="3"/>
+      <c r="C176" s="3"/>
     </row>
     <row r="177" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B177" s="4"/>
-      <c r="C177" s="4"/>
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
     </row>
     <row r="178" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B178" s="4"/>
-      <c r="C178" s="4"/>
+      <c r="B178" s="3"/>
+      <c r="C178" s="3"/>
     </row>
     <row r="179" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B179" s="4"/>
-      <c r="C179" s="4"/>
+      <c r="B179" s="3"/>
+      <c r="C179" s="3"/>
     </row>
     <row r="180" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B180" s="4"/>
-      <c r="C180" s="4"/>
+      <c r="B180" s="3"/>
+      <c r="C180" s="3"/>
     </row>
     <row r="181" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B181" s="4"/>
-      <c r="C181" s="4"/>
+      <c r="B181" s="3"/>
+      <c r="C181" s="3"/>
     </row>
     <row r="182" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B182" s="4"/>
-      <c r="C182" s="4"/>
+      <c r="B182" s="3"/>
+      <c r="C182" s="3"/>
     </row>
     <row r="183" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B183" s="4"/>
-      <c r="C183" s="4"/>
+      <c r="B183" s="3"/>
+      <c r="C183" s="3"/>
     </row>
     <row r="184" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B184" s="4"/>
-      <c r="C184" s="4"/>
+      <c r="B184" s="3"/>
+      <c r="C184" s="3"/>
     </row>
     <row r="185" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B185" s="4"/>
-      <c r="C185" s="4"/>
+      <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
     </row>
     <row r="186" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B186" s="4"/>
-      <c r="C186" s="4"/>
+      <c r="B186" s="3"/>
+      <c r="C186" s="3"/>
     </row>
     <row r="187" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B187" s="4"/>
-      <c r="C187" s="4"/>
+      <c r="B187" s="3"/>
+      <c r="C187" s="3"/>
     </row>
     <row r="188" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B188" s="4"/>
-      <c r="C188" s="4"/>
+      <c r="B188" s="3"/>
+      <c r="C188" s="3"/>
     </row>
     <row r="189" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B189" s="4"/>
-      <c r="C189" s="4"/>
+      <c r="B189" s="3"/>
+      <c r="C189" s="3"/>
     </row>
     <row r="190" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B190" s="4"/>
-      <c r="C190" s="4"/>
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
     </row>
     <row r="191" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B191" s="4"/>
-      <c r="C191" s="4"/>
+      <c r="B191" s="3"/>
+      <c r="C191" s="3"/>
     </row>
     <row r="192" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B192" s="4"/>
-      <c r="C192" s="4"/>
+      <c r="B192" s="3"/>
+      <c r="C192" s="3"/>
     </row>
     <row r="193" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B193" s="4"/>
-      <c r="C193" s="4"/>
+      <c r="B193" s="3"/>
+      <c r="C193" s="3"/>
     </row>
     <row r="194" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B194" s="4"/>
-      <c r="C194" s="4"/>
+      <c r="B194" s="3"/>
+      <c r="C194" s="3"/>
     </row>
     <row r="195" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B195" s="4"/>
-      <c r="C195" s="4"/>
+      <c r="B195" s="3"/>
+      <c r="C195" s="3"/>
     </row>
     <row r="196" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B196" s="4"/>
-      <c r="C196" s="4"/>
+      <c r="B196" s="3"/>
+      <c r="C196" s="3"/>
     </row>
     <row r="197" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B197" s="4"/>
-      <c r="C197" s="4"/>
+      <c r="B197" s="3"/>
+      <c r="C197" s="3"/>
     </row>
     <row r="198" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B198" s="4"/>
-      <c r="C198" s="4"/>
+      <c r="B198" s="3"/>
+      <c r="C198" s="3"/>
     </row>
     <row r="199" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B199" s="4"/>
-      <c r="C199" s="4"/>
+      <c r="B199" s="3"/>
+      <c r="C199" s="3"/>
     </row>
     <row r="200" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B200" s="4"/>
-      <c r="C200" s="4"/>
+      <c r="B200" s="3"/>
+      <c r="C200" s="3"/>
     </row>
     <row r="201" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B201" s="4"/>
-      <c r="C201" s="4"/>
+      <c r="B201" s="3"/>
+      <c r="C201" s="3"/>
     </row>
     <row r="202" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B202" s="4"/>
-      <c r="C202" s="4"/>
+      <c r="B202" s="3"/>
+      <c r="C202" s="3"/>
     </row>
     <row r="203" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B203" s="4"/>
-      <c r="C203" s="4"/>
+      <c r="B203" s="3"/>
+      <c r="C203" s="3"/>
     </row>
     <row r="204" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B204" s="4"/>
-      <c r="C204" s="4"/>
+      <c r="B204" s="3"/>
+      <c r="C204" s="3"/>
     </row>
     <row r="205" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B205" s="4"/>
-      <c r="C205" s="4"/>
+      <c r="B205" s="3"/>
+      <c r="C205" s="3"/>
     </row>
     <row r="206" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B206" s="4"/>
-      <c r="C206" s="4"/>
+      <c r="B206" s="3"/>
+      <c r="C206" s="3"/>
     </row>
     <row r="207" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B207" s="4"/>
-      <c r="C207" s="4"/>
+      <c r="B207" s="3"/>
+      <c r="C207" s="3"/>
     </row>
     <row r="208" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B208" s="4"/>
-      <c r="C208" s="4"/>
+      <c r="B208" s="3"/>
+      <c r="C208" s="3"/>
     </row>
     <row r="209" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B209" s="4"/>
-      <c r="C209" s="4"/>
+      <c r="B209" s="3"/>
+      <c r="C209" s="3"/>
     </row>
     <row r="210" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B210" s="4"/>
-      <c r="C210" s="4"/>
+      <c r="B210" s="3"/>
+      <c r="C210" s="3"/>
     </row>
     <row r="211" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B211" s="4"/>
-      <c r="C211" s="4"/>
+      <c r="B211" s="3"/>
+      <c r="C211" s="3"/>
     </row>
     <row r="212" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B212" s="4"/>
-      <c r="C212" s="4"/>
+      <c r="B212" s="3"/>
+      <c r="C212" s="3"/>
     </row>
     <row r="213" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B213" s="4"/>
-      <c r="C213" s="4"/>
+      <c r="B213" s="3"/>
+      <c r="C213" s="3"/>
     </row>
     <row r="214" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B214" s="4"/>
-      <c r="C214" s="4"/>
+      <c r="B214" s="3"/>
+      <c r="C214" s="3"/>
     </row>
     <row r="215" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B215" s="4"/>
-      <c r="C215" s="4"/>
+      <c r="B215" s="3"/>
+      <c r="C215" s="3"/>
     </row>
     <row r="216" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B216" s="4"/>
-      <c r="C216" s="4"/>
+      <c r="B216" s="3"/>
+      <c r="C216" s="3"/>
     </row>
     <row r="217" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B217" s="4"/>
-      <c r="C217" s="4"/>
+      <c r="B217" s="3"/>
+      <c r="C217" s="3"/>
     </row>
     <row r="218" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B218" s="4"/>
-      <c r="C218" s="4"/>
+      <c r="B218" s="3"/>
+      <c r="C218" s="3"/>
     </row>
     <row r="219" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B219" s="4"/>
-      <c r="C219" s="4"/>
+      <c r="B219" s="3"/>
+      <c r="C219" s="3"/>
     </row>
     <row r="220" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B220" s="4"/>
-      <c r="C220" s="4"/>
+      <c r="B220" s="3"/>
+      <c r="C220" s="3"/>
     </row>
     <row r="221" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B221" s="4"/>
-      <c r="C221" s="4"/>
+      <c r="B221" s="3"/>
+      <c r="C221" s="3"/>
     </row>
     <row r="222" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B222" s="4"/>
-      <c r="C222" s="4"/>
+      <c r="B222" s="3"/>
+      <c r="C222" s="3"/>
     </row>
     <row r="223" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B223" s="4"/>
-      <c r="C223" s="4"/>
+      <c r="B223" s="3"/>
+      <c r="C223" s="3"/>
     </row>
     <row r="224" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B224" s="4"/>
-      <c r="C224" s="4"/>
+      <c r="B224" s="3"/>
+      <c r="C224" s="3"/>
     </row>
     <row r="225" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B225" s="4"/>
-      <c r="C225" s="4"/>
+      <c r="B225" s="3"/>
+      <c r="C225" s="3"/>
     </row>
     <row r="226" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B226" s="4"/>
-      <c r="C226" s="4"/>
+      <c r="B226" s="3"/>
+      <c r="C226" s="3"/>
     </row>
     <row r="227" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B227" s="4"/>
-      <c r="C227" s="4"/>
+      <c r="B227" s="3"/>
+      <c r="C227" s="3"/>
     </row>
     <row r="228" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B228" s="4"/>
-      <c r="C228" s="4"/>
+      <c r="B228" s="3"/>
+      <c r="C228" s="3"/>
     </row>
     <row r="229" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B229" s="4"/>
-      <c r="C229" s="4"/>
+      <c r="B229" s="3"/>
+      <c r="C229" s="3"/>
     </row>
     <row r="230" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B230" s="4"/>
-      <c r="C230" s="4"/>
+      <c r="B230" s="3"/>
+      <c r="C230" s="3"/>
     </row>
     <row r="231" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B231" s="4"/>
-      <c r="C231" s="4"/>
+      <c r="B231" s="3"/>
+      <c r="C231" s="3"/>
     </row>
     <row r="232" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B232" s="4"/>
-      <c r="C232" s="4"/>
+      <c r="B232" s="3"/>
+      <c r="C232" s="3"/>
     </row>
     <row r="233" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B233" s="4"/>
-      <c r="C233" s="4"/>
+      <c r="B233" s="3"/>
+      <c r="C233" s="3"/>
     </row>
     <row r="234" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B234" s="4"/>
-      <c r="C234" s="4"/>
+      <c r="B234" s="3"/>
+      <c r="C234" s="3"/>
     </row>
     <row r="235" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B235" s="4"/>
-      <c r="C235" s="4"/>
+      <c r="B235" s="3"/>
+      <c r="C235" s="3"/>
     </row>
     <row r="236" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B236" s="4"/>
-      <c r="C236" s="4"/>
+      <c r="B236" s="3"/>
+      <c r="C236" s="3"/>
     </row>
     <row r="237" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B237" s="4"/>
-      <c r="C237" s="4"/>
+      <c r="B237" s="3"/>
+      <c r="C237" s="3"/>
     </row>
     <row r="238" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B238" s="4"/>
-      <c r="C238" s="4"/>
+      <c r="B238" s="3"/>
+      <c r="C238" s="3"/>
     </row>
     <row r="239" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B239" s="4"/>
-      <c r="C239" s="4"/>
+      <c r="B239" s="3"/>
+      <c r="C239" s="3"/>
     </row>
     <row r="240" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B240" s="4"/>
-      <c r="C240" s="4"/>
+      <c r="B240" s="3"/>
+      <c r="C240" s="3"/>
     </row>
     <row r="241" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B241" s="4"/>
-      <c r="C241" s="4"/>
+      <c r="B241" s="3"/>
+      <c r="C241" s="3"/>
     </row>
     <row r="242" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B242" s="4"/>
-      <c r="C242" s="4"/>
+      <c r="B242" s="3"/>
+      <c r="C242" s="3"/>
     </row>
     <row r="243" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B243" s="4"/>
-      <c r="C243" s="4"/>
+      <c r="B243" s="3"/>
+      <c r="C243" s="3"/>
     </row>
     <row r="244" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B244" s="4"/>
-      <c r="C244" s="4"/>
+      <c r="B244" s="3"/>
+      <c r="C244" s="3"/>
     </row>
     <row r="245" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B245" s="4"/>
-      <c r="C245" s="4"/>
+      <c r="B245" s="3"/>
+      <c r="C245" s="3"/>
     </row>
     <row r="246" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B246" s="4"/>
-      <c r="C246" s="4"/>
+      <c r="B246" s="3"/>
+      <c r="C246" s="3"/>
     </row>
     <row r="247" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B247" s="4"/>
-      <c r="C247" s="4"/>
+      <c r="B247" s="3"/>
+      <c r="C247" s="3"/>
     </row>
     <row r="248" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B248" s="4"/>
-      <c r="C248" s="4"/>
+      <c r="B248" s="3"/>
+      <c r="C248" s="3"/>
     </row>
     <row r="249" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B249" s="4"/>
-      <c r="C249" s="4"/>
+      <c r="B249" s="3"/>
+      <c r="C249" s="3"/>
     </row>
     <row r="250" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B250" s="4"/>
-      <c r="C250" s="4"/>
+      <c r="B250" s="3"/>
+      <c r="C250" s="3"/>
     </row>
     <row r="251" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B251" s="4"/>
-      <c r="C251" s="4"/>
+      <c r="B251" s="3"/>
+      <c r="C251" s="3"/>
     </row>
     <row r="252" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B252" s="4"/>
-      <c r="C252" s="4"/>
+      <c r="B252" s="3"/>
+      <c r="C252" s="3"/>
     </row>
     <row r="253" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B253" s="4"/>
-      <c r="C253" s="4"/>
+      <c r="B253" s="3"/>
+      <c r="C253" s="3"/>
     </row>
     <row r="254" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B254" s="4"/>
-      <c r="C254" s="4"/>
+      <c r="B254" s="3"/>
+      <c r="C254" s="3"/>
     </row>
     <row r="255" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B255" s="4"/>
-      <c r="C255" s="4"/>
+      <c r="B255" s="3"/>
+      <c r="C255" s="3"/>
     </row>
     <row r="256" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B256" s="4"/>
-      <c r="C256" s="4"/>
+      <c r="B256" s="3"/>
+      <c r="C256" s="3"/>
     </row>
     <row r="257" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B257" s="4"/>
-      <c r="C257" s="4"/>
+      <c r="B257" s="3"/>
+      <c r="C257" s="3"/>
     </row>
     <row r="258" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B258" s="4"/>
-      <c r="C258" s="4"/>
+      <c r="B258" s="3"/>
+      <c r="C258" s="3"/>
     </row>
     <row r="259" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B259" s="4"/>
-      <c r="C259" s="4"/>
+      <c r="B259" s="3"/>
+      <c r="C259" s="3"/>
     </row>
     <row r="260" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B260" s="4"/>
-      <c r="C260" s="4"/>
+      <c r="B260" s="3"/>
+      <c r="C260" s="3"/>
     </row>
     <row r="261" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B261" s="4"/>
-      <c r="C261" s="4"/>
+      <c r="B261" s="3"/>
+      <c r="C261" s="3"/>
     </row>
     <row r="262" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B262" s="4"/>
-      <c r="C262" s="4"/>
+      <c r="B262" s="3"/>
+      <c r="C262" s="3"/>
     </row>
     <row r="263" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B263" s="4"/>
-      <c r="C263" s="4"/>
+      <c r="B263" s="3"/>
+      <c r="C263" s="3"/>
     </row>
     <row r="264" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B264" s="4"/>
-      <c r="C264" s="4"/>
+      <c r="B264" s="3"/>
+      <c r="C264" s="3"/>
     </row>
     <row r="265" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B265" s="4"/>
-      <c r="C265" s="4"/>
+      <c r="B265" s="3"/>
+      <c r="C265" s="3"/>
     </row>
     <row r="266" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B266" s="4"/>
-      <c r="C266" s="4"/>
+      <c r="B266" s="3"/>
+      <c r="C266" s="3"/>
     </row>
     <row r="267" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B267" s="4"/>
-      <c r="C267" s="4"/>
+      <c r="B267" s="3"/>
+      <c r="C267" s="3"/>
     </row>
     <row r="268" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B268" s="4"/>
-      <c r="C268" s="4"/>
+      <c r="B268" s="3"/>
+      <c r="C268" s="3"/>
     </row>
     <row r="269" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B269" s="4"/>
-      <c r="C269" s="4"/>
+      <c r="B269" s="3"/>
+      <c r="C269" s="3"/>
     </row>
     <row r="270" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B270" s="4"/>
-      <c r="C270" s="4"/>
+      <c r="B270" s="3"/>
+      <c r="C270" s="3"/>
     </row>
     <row r="271" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B271" s="4"/>
-      <c r="C271" s="4"/>
+      <c r="B271" s="3"/>
+      <c r="C271" s="3"/>
     </row>
     <row r="272" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B272" s="4"/>
-      <c r="C272" s="4"/>
+      <c r="B272" s="3"/>
+      <c r="C272" s="3"/>
     </row>
     <row r="273" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B273" s="4"/>
-      <c r="C273" s="4"/>
+      <c r="B273" s="3"/>
+      <c r="C273" s="3"/>
     </row>
     <row r="274" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B274" s="4"/>
-      <c r="C274" s="4"/>
+      <c r="B274" s="3"/>
+      <c r="C274" s="3"/>
     </row>
     <row r="275" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B275" s="4"/>
-      <c r="C275" s="4"/>
+      <c r="B275" s="3"/>
+      <c r="C275" s="3"/>
     </row>
     <row r="276" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B276" s="4"/>
-      <c r="C276" s="4"/>
+      <c r="B276" s="3"/>
+      <c r="C276" s="3"/>
     </row>
     <row r="277" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B277" s="4"/>
-      <c r="C277" s="4"/>
+      <c r="B277" s="3"/>
+      <c r="C277" s="3"/>
     </row>
     <row r="278" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B278" s="4"/>
-      <c r="C278" s="4"/>
+      <c r="B278" s="3"/>
+      <c r="C278" s="3"/>
     </row>
     <row r="279" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B279" s="4"/>
-      <c r="C279" s="4"/>
+      <c r="B279" s="3"/>
+      <c r="C279" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Journal de bord v2.xlsx
+++ b/Journal de bord v2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>Date</t>
   </si>
@@ -111,6 +111,78 @@
   </si>
   <si>
     <t>J'ai eu un problème avec Pencil. Les fichiers se sont enregistrés les uns sur les autres et cela m'a fait perdre beaucoup de temps.</t>
+  </si>
+  <si>
+    <t>Use cases et scénarii</t>
+  </si>
+  <si>
+    <t>Insertion des maquettes dans le dossier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création de l'arborescence de mon site </t>
+  </si>
+  <si>
+    <t>Création des premiers fichier de base du site</t>
+  </si>
+  <si>
+    <t>Création de la BD sur phpmyadmin</t>
+  </si>
+  <si>
+    <t>Modification de la base de donnée de base</t>
+  </si>
+  <si>
+    <t>Modification de la BD, Création des relation, insertion des utilisateurs</t>
+  </si>
+  <si>
+    <t>J'ai passé beaucoup de temps à faire en sorte que le type de données que m'avait donné le générateur d'utilisateur corresponde à la table que j'avais créé précédemment</t>
+  </si>
+  <si>
+    <t>Création de la page de login et des bases des fonctions de login</t>
+  </si>
+  <si>
+    <t>Présentation de M. Egger</t>
+  </si>
+  <si>
+    <t>Login et erreur de login</t>
+  </si>
+  <si>
+    <t>Fin du login, de la déconnection, de la redirection ainsi que changement du menu selon l'utilisateur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Création de la vue Etablir un horaire et début des requetes </t>
+  </si>
+  <si>
+    <t>Discussion sur une méthode plus simple pour définir un horaire avec M. Benzonana</t>
+  </si>
+  <si>
+    <t>Refonte de la page "Définir un horaire"</t>
+  </si>
+  <si>
+    <t>Récupération des infirmière dans la page définir un horaire</t>
+  </si>
+  <si>
+    <t>Modification de la page définir un horaire</t>
+  </si>
+  <si>
+    <t>Correction d'un problème d'affichage de caractère spéciaux dans une liste déroulante des noms d'infirmières dans la page "Définir un horaire"</t>
+  </si>
+  <si>
+    <t>Correction de la page "Définir un horaire", recompréhension de ma base de données par rapport à ma page et création de la fonction "definirhoraire"</t>
+  </si>
+  <si>
+    <t>Modification de la page définir un horaire, création de la fonction d'insertion de l'horaire</t>
+  </si>
+  <si>
+    <t>J'ai eu beaucoup de problèmes avec cette fonction. Notamment car il fallait que je trouve des methode d'incrémentation en date, mais aussi car il fallait que je trouve la méthode la plus adaptée pour l'insertion des données. J'ai aussi eu des problèmes sur ma requete qui insérait des données à l'infini.</t>
+  </si>
+  <si>
+    <t>Discussion avec M. Benzonana concernant la modification du type d'horaire que j'aurai sur mon site.</t>
+  </si>
+  <si>
+    <t>Modification de la page définir un horaire et modification de la BD</t>
+  </si>
+  <si>
+    <t>Création des fonctions principales d'affichage de l'horaire personnel</t>
   </si>
 </sst>
 </file>
@@ -219,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -234,6 +306,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -254,8 +329,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,33 +626,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="8"/>
+      <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
+      <c r="A3" s="12"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="12">
+      <c r="A4" s="6">
         <v>43132</v>
       </c>
       <c r="B4" s="3">
@@ -591,7 +666,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
+      <c r="A5" s="6"/>
       <c r="B5" s="3">
         <v>0.41666666666666669</v>
       </c>
@@ -639,7 +714,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12">
+      <c r="A9" s="6">
         <v>43133</v>
       </c>
       <c r="B9" s="3">
@@ -653,7 +728,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="12">
+      <c r="A10" s="6">
         <v>43137</v>
       </c>
       <c r="B10" s="3">
@@ -744,7 +819,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="12">
+      <c r="A18" s="6">
         <v>43139</v>
       </c>
       <c r="B18" s="3">
@@ -839,7 +914,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="12">
+      <c r="A27" s="6">
         <v>43140</v>
       </c>
       <c r="B27" s="3">
@@ -856,150 +931,340 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
+      <c r="A28" s="6">
+        <v>43144</v>
+      </c>
+      <c r="B28" s="3">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
+      <c r="B29" s="3">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
+      <c r="B30" s="3">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
+      <c r="B31" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="3"/>
-      <c r="C39" s="3"/>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B32" s="3">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="6">
+        <v>43146</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0.34375</v>
+      </c>
+      <c r="C33" s="3">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B34" s="3">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="C34" s="3">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="3">
+        <v>0.4861111111111111</v>
+      </c>
+      <c r="C35" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="C36" s="3">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="3">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.59375</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="3">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C38" s="3">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="3">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="C39" s="3">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="6">
+        <v>43147</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="C40" s="3">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="3">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="C41" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C42" s="3">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="3">
+        <v>0.49305555555555558</v>
+      </c>
+      <c r="C43" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="6">
+        <v>43158</v>
+      </c>
+      <c r="B44" s="3">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="C44" s="3">
+        <v>0.46180555555555558</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="3">
+        <v>0.46527777777777773</v>
+      </c>
+      <c r="C45" s="3">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="6">
+        <v>43160</v>
+      </c>
+      <c r="B46" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C46" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="C47" s="3">
+        <v>0.59375</v>
+      </c>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+    </row>
+    <row r="48" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="3">
+        <v>0.59375</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+    </row>
+    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <v>43161</v>
+      </c>
+      <c r="B49" s="3">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="3">
+        <v>0.47222222222222227</v>
+      </c>
+      <c r="C50" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="C51" s="3">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
     </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
     </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
     </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
     </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
     </row>
@@ -1864,11 +2129,13 @@
       <c r="C279" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="E2:E3"/>
+    <mergeCell ref="D46:D48"/>
+    <mergeCell ref="E46:E48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Journal de bord v2.xlsx
+++ b/Journal de bord v2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>Date</t>
   </si>
@@ -183,6 +183,9 @@
   </si>
   <si>
     <t>Création des fonctions principales d'affichage de l'horaire personnel</t>
+  </si>
+  <si>
+    <t>Fonction d'affichage de l'horaire personnel</t>
   </si>
 </sst>
 </file>
@@ -615,7 +618,7 @@
   <dimension ref="A2:E279"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E51" sqref="E51"/>
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,8 +1220,18 @@
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
+      <c r="A52" s="6">
+        <v>43165</v>
+      </c>
+      <c r="B52" s="3">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C52" s="3">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" s="3"/>

--- a/Journal de bord v2.xlsx
+++ b/Journal de bord v2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -186,6 +186,24 @@
   </si>
   <si>
     <t>Fonction d'affichage de l'horaire personnel</t>
+  </si>
+  <si>
+    <t>Correction d'une erreur d'affichage dans l'horaire personnel</t>
+  </si>
+  <si>
+    <t>Redirection / sécurisation de toutes les pages pour qu'elles soit accessible uniquement pour la personne ayant les accès</t>
+  </si>
+  <si>
+    <t>Refonte de la page controller pour la sécurité</t>
+  </si>
+  <si>
+    <t>Changement du contrôle de sécurité de la page index.php à controleur.php / création de la page "Demande d'échange horaire"</t>
+  </si>
+  <si>
+    <t>Création de fonction pour la page d'échange horaire</t>
+  </si>
+  <si>
+    <t>Developpement de la page d'horaire global</t>
   </si>
 </sst>
 </file>
@@ -617,8 +635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,32 +1252,85 @@
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
+      <c r="A53" s="6">
+        <v>43167</v>
+      </c>
+      <c r="B53" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C53" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B54" s="3">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C54" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
+      <c r="B55" s="3">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C55" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B56" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="C56" s="3">
+        <v>0.59375</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
+      <c r="B57" s="3">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C57" s="3">
+        <v>0.67361111111111116</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
+      <c r="A58" s="6">
+        <v>43168</v>
+      </c>
+      <c r="B58" s="3">
+        <v>0.44097222222222227</v>
+      </c>
+      <c r="C58" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
+      <c r="B59" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="C59" s="3">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D59" s="13"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B60" s="3"/>
@@ -2142,7 +2213,8 @@
       <c r="C279" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="D58:D59"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="A2:A3"/>

--- a/Journal de bord v2.xlsx
+++ b/Journal de bord v2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
   <si>
     <t>Date</t>
   </si>
@@ -204,6 +204,24 @@
   </si>
   <si>
     <t>Developpement de la page d'horaire global</t>
+  </si>
+  <si>
+    <t>J'ai beaucoup de soucis avec cette page. Je suis donc passer sur un array multidimensionnel au lieu d'un array simple. Ce qui ma prit aussi du temps a comprendre</t>
+  </si>
+  <si>
+    <t>L'array multidimensionnel me permet d'afficher tout mes horaire mais pas la tranche d'horaire. Il faut que je refasse mon tableau entierement ou que je trouve une autre solution pour afficher la plage horaire</t>
+  </si>
+  <si>
+    <t>Finition de la page d'horaire global</t>
+  </si>
+  <si>
+    <t>La plage horaire est maintenant affichée.</t>
+  </si>
+  <si>
+    <t>Création des première fonctions de la page d'échange d'horaire</t>
+  </si>
+  <si>
+    <t>Création d'une condition pour ne pas pouvoir mettre une date antérieur dans la page définir horaire</t>
   </si>
 </sst>
 </file>
@@ -332,6 +350,9 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -349,9 +370,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -635,8 +653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,30 +665,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="9"/>
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="12"/>
+      <c r="A3" s="13"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
@@ -1174,10 +1192,10 @@
       <c r="C46" s="3">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="E46" s="13" t="s">
+      <c r="E46" s="7" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1188,8 +1206,8 @@
       <c r="C47" s="3">
         <v>0.59375</v>
       </c>
-      <c r="D47" s="13"/>
-      <c r="E47" s="13"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
     </row>
     <row r="48" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
@@ -1198,10 +1216,10 @@
       <c r="C48" s="3">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D48" s="13"/>
-      <c r="E48" s="13"/>
-    </row>
-    <row r="49" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
         <v>43161</v>
       </c>
@@ -1215,7 +1233,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" s="3">
         <v>0.47222222222222227</v>
       </c>
@@ -1226,7 +1244,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" s="3">
         <v>0.5625</v>
       </c>
@@ -1237,7 +1255,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="6">
         <v>43165</v>
       </c>
@@ -1251,7 +1269,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="6">
         <v>43167</v>
       </c>
@@ -1265,7 +1283,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B54" s="3">
         <v>0.41666666666666669</v>
       </c>
@@ -1276,7 +1294,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B55" s="3">
         <v>0.45833333333333331</v>
       </c>
@@ -1287,7 +1305,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B56" s="3">
         <v>0.5625</v>
       </c>
@@ -1298,7 +1316,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B57" s="3">
         <v>0.63888888888888895</v>
       </c>
@@ -1309,7 +1327,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="6">
         <v>43168</v>
       </c>
@@ -1319,100 +1337,165 @@
       <c r="C58" s="3">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D58" s="13" t="s">
+      <c r="D58" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" s="3">
         <v>0.5625</v>
       </c>
       <c r="C59" s="3">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D59" s="13"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="D59" s="7"/>
+    </row>
+    <row r="60" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A60" s="6">
+        <v>43172</v>
+      </c>
+      <c r="B60" s="3">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C60" s="3">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
+        <v>43174</v>
+      </c>
+      <c r="B61" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C61" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B62" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="C62" s="3">
+        <v>0.59375</v>
+      </c>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+    </row>
+    <row r="63" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="3">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C63" s="3">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
+        <v>43175</v>
+      </c>
+      <c r="B64" s="3">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="C64" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B65" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="C65" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="B66" s="3">
+        <v>0.60416666666666663</v>
+      </c>
+      <c r="C66" s="3">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
     </row>
@@ -2213,14 +2296,16 @@
       <c r="C279" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:D3"/>
+  <mergeCells count="9">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="D46:D48"/>
     <mergeCell ref="E46:E48"/>
+    <mergeCell ref="D61:D63"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Journal de bord v2.xlsx
+++ b/Journal de bord v2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
   <si>
     <t>Date</t>
   </si>
@@ -222,6 +222,12 @@
   </si>
   <si>
     <t>Création d'une condition pour ne pas pouvoir mettre une date antérieur dans la page définir horaire</t>
+  </si>
+  <si>
+    <t>Enlever le bug d'une possibilité que l'ICUS puisse mettre une date antérieur à celle de date début dans le date fin</t>
+  </si>
+  <si>
+    <t>Fonction d'échange d'horaire</t>
   </si>
 </sst>
 </file>
@@ -330,7 +336,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -351,6 +357,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -358,18 +379,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -653,7 +662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
       <selection activeCell="E66" sqref="E66"/>
     </sheetView>
   </sheetViews>
@@ -665,13 +674,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="9"/>
+      <c r="C2" s="14"/>
       <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
@@ -680,7 +689,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13"/>
+      <c r="A3" s="9"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1192,10 +1201,10 @@
       <c r="C46" s="3">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D46" s="7" t="s">
+      <c r="D46" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E46" s="7" t="s">
+      <c r="E46" s="12" t="s">
         <v>48</v>
       </c>
     </row>
@@ -1206,8 +1215,8 @@
       <c r="C47" s="3">
         <v>0.59375</v>
       </c>
-      <c r="D47" s="7"/>
-      <c r="E47" s="7"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="12"/>
     </row>
     <row r="48" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="3">
@@ -1216,8 +1225,8 @@
       <c r="C48" s="3">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D48" s="7"/>
-      <c r="E48" s="7"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="12"/>
     </row>
     <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="6">
@@ -1337,7 +1346,7 @@
       <c r="C58" s="3">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D58" s="12" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1348,7 +1357,7 @@
       <c r="C59" s="3">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D59" s="7"/>
+      <c r="D59" s="12"/>
     </row>
     <row r="60" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="6">
@@ -1377,10 +1386,10 @@
       <c r="C61" s="3">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D61" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="E61" s="12" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1391,8 +1400,8 @@
       <c r="C62" s="3">
         <v>0.59375</v>
       </c>
-      <c r="D62" s="7"/>
-      <c r="E62" s="7"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="12"/>
     </row>
     <row r="63" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B63" s="3">
@@ -1401,8 +1410,8 @@
       <c r="C63" s="3">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D63" s="7"/>
-      <c r="E63" s="7"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="12"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="6">
@@ -1421,7 +1430,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B65" s="3">
         <v>0.5625</v>
       </c>
@@ -1432,7 +1441,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="2:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="B66" s="3">
         <v>0.60416666666666663</v>
       </c>
@@ -1443,59 +1452,81 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="6">
+        <v>43179</v>
+      </c>
+      <c r="B67" s="3">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C67" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B68" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="C68" s="3">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="D68" s="7"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B69" s="3">
+        <v>0.60069444444444442</v>
+      </c>
+      <c r="C69" s="3">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
     </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
     </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
     </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
     </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
     </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
     </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
     </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
     </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
     </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
     </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
     </row>
@@ -2296,7 +2327,8 @@
       <c r="C279" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="D67:D68"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="D46:D48"/>

--- a/Journal de bord v2.xlsx
+++ b/Journal de bord v2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
   <si>
     <t>Date</t>
   </si>
@@ -228,6 +228,18 @@
   </si>
   <si>
     <t>Fonction d'échange d'horaire</t>
+  </si>
+  <si>
+    <t>Créer avec l'aide de Karen</t>
+  </si>
+  <si>
+    <t>Fonction d'affichage de l'horaire</t>
+  </si>
+  <si>
+    <t>Fonction</t>
+  </si>
+  <si>
+    <t>Mise en fonction de mon site sur un serveur infomaniak et finition de l'envoi de mail</t>
   </si>
 </sst>
 </file>
@@ -662,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1430,7 +1442,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B65" s="3">
         <v>0.5625</v>
       </c>
@@ -1441,7 +1453,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B66" s="3">
         <v>0.60416666666666663</v>
       </c>
@@ -1452,7 +1464,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="6">
         <v>43179</v>
       </c>
@@ -1465,8 +1477,11 @@
       <c r="D67" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B68" s="3">
         <v>0.5625</v>
       </c>
@@ -1475,7 +1490,7 @@
       </c>
       <c r="D68" s="7"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B69" s="3">
         <v>0.60069444444444442</v>
       </c>
@@ -1486,47 +1501,74 @@
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
+        <v>43181</v>
+      </c>
+      <c r="B70" s="3">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C70" s="3">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="3">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C71" s="3">
+        <v>0.70486111111111116</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
+        <v>43182</v>
+      </c>
+      <c r="B72" s="3">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="C72" s="3">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
     </row>

--- a/Journal de bord v2.xlsx
+++ b/Journal de bord v2.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="76">
   <si>
     <t>Date</t>
   </si>
@@ -236,10 +236,25 @@
     <t>Fonction d'affichage de l'horaire</t>
   </si>
   <si>
-    <t>Fonction</t>
-  </si>
-  <si>
     <t>Mise en fonction de mon site sur un serveur infomaniak et finition de l'envoi de mail</t>
+  </si>
+  <si>
+    <t>Fin du développement de la fonction d'envoie d'horaire</t>
+  </si>
+  <si>
+    <t>Avec l'aide d'anthony</t>
+  </si>
+  <si>
+    <t>Fonction d'envoi de mail</t>
+  </si>
+  <si>
+    <t>J'ai adapté ma fonction pour que la confirmation du mail soit le déclencheur</t>
+  </si>
+  <si>
+    <t>Commentaire du code / Recréation du zoning et des wireframes / Sécurisation contre l'injection sql</t>
+  </si>
+  <si>
+    <t>Documentation</t>
   </si>
 </sst>
 </file>
@@ -269,7 +284,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -344,11 +359,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -368,7 +410,52 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -383,7 +470,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -674,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D73" sqref="D73"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -686,871 +776,1006 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="10" t="s">
+      <c r="C2" s="30"/>
+      <c r="D2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="25" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="9"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="7">
         <v>43132</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="8">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="8">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="9" t="s">
         <v>5</v>
       </c>
+      <c r="E4" s="9"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="6"/>
-      <c r="B5" s="3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="11">
         <v>0.66666666666666663</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="12" t="s">
         <v>6</v>
       </c>
+      <c r="E5" s="12"/>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B6" s="3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="11">
         <v>0.66666666666666663</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="11">
         <v>0.69444444444444453</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="12" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="11">
         <v>0.69444444444444453</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="11">
         <v>0.70138888888888884</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="12" t="s">
         <v>10</v>
       </c>
+      <c r="E7" s="12"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="11">
         <v>0.70138888888888884</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="11">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="E8" s="12"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="14">
         <v>43133</v>
       </c>
-      <c r="B9" s="3">
+      <c r="B9" s="15">
         <v>0.5625</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="15">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="16" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="E9" s="16"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
         <v>43137</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="18">
         <v>0.44444444444444442</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="18">
         <v>0.4513888888888889</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="19" t="s">
         <v>13</v>
       </c>
+      <c r="E10" s="19"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" s="3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="11">
         <v>0.4513888888888889</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="11">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="12" t="s">
         <v>14</v>
       </c>
+      <c r="E11" s="12"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
+      <c r="A12" s="13"/>
+      <c r="B12" s="11">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="11">
         <v>0.47222222222222227</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="12" t="s">
         <v>15</v>
       </c>
+      <c r="E12" s="12"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
+      <c r="A13" s="13"/>
+      <c r="B13" s="11">
         <v>0.47222222222222227</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="11">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="12" t="s">
         <v>16</v>
       </c>
+      <c r="E13" s="12"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
+      <c r="A14" s="13"/>
+      <c r="B14" s="11">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="11">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="12" t="s">
         <v>17</v>
       </c>
+      <c r="E14" s="12"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" s="3">
+      <c r="A15" s="13"/>
+      <c r="B15" s="11">
         <v>0.5625</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="12" t="s">
         <v>19</v>
       </c>
+      <c r="E15" s="12"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" s="3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="11">
         <v>0.58333333333333337</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="11">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="12" t="s">
         <v>18</v>
       </c>
+      <c r="E16" s="12"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="11">
         <v>0.63888888888888895</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="11">
         <v>0.67013888888888884</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="12" t="s">
         <v>18</v>
       </c>
+      <c r="E17" s="12"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="10">
         <v>43139</v>
       </c>
-      <c r="B18" s="3">
+      <c r="B18" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="11">
         <v>0.34722222222222227</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="12" t="s">
         <v>18</v>
       </c>
+      <c r="E18" s="12"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="3">
+      <c r="A19" s="13"/>
+      <c r="B19" s="11">
         <v>0.34722222222222227</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="11">
         <v>0.36805555555555558</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="12" t="s">
         <v>20</v>
       </c>
+      <c r="E19" s="12"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="11">
         <v>0.36805555555555558</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="11">
         <v>0.375</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="12" t="s">
         <v>21</v>
       </c>
+      <c r="E20" s="12"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="11">
         <v>0.375</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="11">
         <v>0.3888888888888889</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="12" t="s">
         <v>22</v>
       </c>
+      <c r="E21" s="12"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="3">
+      <c r="A22" s="13"/>
+      <c r="B22" s="11">
         <v>0.3888888888888889</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="11">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="12" t="s">
         <v>23</v>
       </c>
+      <c r="E22" s="12"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" s="3">
+      <c r="A24" s="13"/>
+      <c r="B24" s="11">
         <v>0.5625</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="11">
         <v>0.59375</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="12" t="s">
         <v>24</v>
       </c>
+      <c r="E24" s="12"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B25" s="3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="11">
         <v>0.62847222222222221</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="11">
         <v>0.65625</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="12" t="s">
         <v>24</v>
       </c>
+      <c r="E25" s="12"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="11">
         <v>0.65625</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="11">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="6">
+      <c r="E26" s="12"/>
+    </row>
+    <row r="27" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14">
         <v>43140</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="15">
         <v>0.5625</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="15">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="16" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="6">
+    <row r="28" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="17">
         <v>43144</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="18">
         <v>0.44444444444444442</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="18">
         <v>0.49305555555555558</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="19" t="s">
         <v>28</v>
       </c>
+      <c r="E28" s="19"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="3">
+      <c r="A29" s="13"/>
+      <c r="B29" s="11">
         <v>0.49305555555555558</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="11">
         <v>0.50347222222222221</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="12" t="s">
         <v>29</v>
       </c>
+      <c r="E29" s="12"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" s="3">
+      <c r="A30" s="13"/>
+      <c r="B30" s="11">
         <v>0.50347222222222221</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="11">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="12" t="s">
         <v>30</v>
       </c>
+      <c r="E30" s="12"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B31" s="3">
+      <c r="A31" s="13"/>
+      <c r="B31" s="11">
         <v>0.5625</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="11">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="12" t="s">
         <v>31</v>
       </c>
+      <c r="E31" s="12"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B32" s="3">
+      <c r="A32" s="13"/>
+      <c r="B32" s="11">
         <v>0.63888888888888895</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="11">
         <v>0.67013888888888884</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="12" t="s">
         <v>32</v>
       </c>
+      <c r="E32" s="12"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="6">
+      <c r="A33" s="10">
         <v>43146</v>
       </c>
-      <c r="B33" s="3">
+      <c r="B33" s="11">
         <v>0.34375</v>
       </c>
-      <c r="C33" s="3">
+      <c r="C33" s="11">
         <v>0.35069444444444442</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="12" t="s">
         <v>33</v>
       </c>
+      <c r="E33" s="12"/>
     </row>
     <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B34" s="3">
+      <c r="A34" s="13"/>
+      <c r="B34" s="11">
         <v>0.35069444444444442</v>
       </c>
-      <c r="C34" s="3">
+      <c r="C34" s="11">
         <v>0.4861111111111111</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="12" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B35" s="3">
+      <c r="A35" s="13"/>
+      <c r="B35" s="11">
         <v>0.4861111111111111</v>
       </c>
-      <c r="C35" s="3">
+      <c r="C35" s="11">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="12" t="s">
         <v>36</v>
       </c>
+      <c r="E35" s="12"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B36" s="3">
+      <c r="A36" s="13"/>
+      <c r="B36" s="11">
         <v>0.5625</v>
       </c>
-      <c r="C36" s="3">
+      <c r="C36" s="11">
         <v>0.57638888888888895</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="12" t="s">
         <v>37</v>
       </c>
+      <c r="E36" s="12"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B37" s="3">
+      <c r="A37" s="13"/>
+      <c r="B37" s="11">
         <v>0.57638888888888895</v>
       </c>
-      <c r="C37" s="3">
+      <c r="C37" s="11">
         <v>0.59375</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="12" t="s">
         <v>38</v>
       </c>
+      <c r="E37" s="12"/>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B38" s="3">
+      <c r="A38" s="13"/>
+      <c r="B38" s="11">
         <v>0.63888888888888895</v>
       </c>
-      <c r="C38" s="3">
+      <c r="C38" s="11">
         <v>0.67361111111111116</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="12" t="s">
         <v>39</v>
       </c>
+      <c r="E38" s="12"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="3">
+      <c r="A39" s="13"/>
+      <c r="B39" s="11">
         <v>0.67361111111111116</v>
       </c>
-      <c r="C39" s="3">
+      <c r="C39" s="11">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="12" t="s">
         <v>40</v>
       </c>
+      <c r="E39" s="12"/>
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="6">
+      <c r="A40" s="10">
         <v>43147</v>
       </c>
-      <c r="B40" s="3">
+      <c r="B40" s="11">
         <v>0.40972222222222227</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="11">
         <v>0.43055555555555558</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="12" t="s">
         <v>41</v>
       </c>
+      <c r="E40" s="12"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B41" s="3">
+      <c r="A41" s="13"/>
+      <c r="B41" s="11">
         <v>0.43055555555555558</v>
       </c>
-      <c r="C41" s="3">
+      <c r="C41" s="11">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="12" t="s">
         <v>42</v>
       </c>
+      <c r="E41" s="12"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B42" s="3">
+      <c r="A42" s="13"/>
+      <c r="B42" s="11">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C42" s="3">
+      <c r="C42" s="11">
         <v>0.49305555555555558</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="12" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B43" s="3">
+      <c r="E42" s="12"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="20"/>
+      <c r="B43" s="15">
         <v>0.49305555555555558</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C43" s="15">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="16" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A44" s="6">
+      <c r="E43" s="16"/>
+    </row>
+    <row r="44" spans="1:5" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="17">
         <v>43158</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B44" s="18">
         <v>0.44097222222222227</v>
       </c>
-      <c r="C44" s="3">
+      <c r="C44" s="18">
         <v>0.46180555555555558</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="19" t="s">
         <v>45</v>
       </c>
+      <c r="E44" s="19"/>
     </row>
     <row r="45" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B45" s="3">
+      <c r="A45" s="13"/>
+      <c r="B45" s="11">
         <v>0.46527777777777773</v>
       </c>
-      <c r="C45" s="3">
+      <c r="C45" s="11">
         <v>0.67013888888888884</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="12" t="s">
         <v>46</v>
       </c>
+      <c r="E45" s="12"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="6">
+      <c r="A46" s="10">
         <v>43160</v>
       </c>
-      <c r="B46" s="3">
+      <c r="B46" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C46" s="3">
+      <c r="C46" s="11">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D46" s="12" t="s">
+      <c r="D46" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="E46" s="12" t="s">
+      <c r="E46" s="27" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="3">
+      <c r="A47" s="13"/>
+      <c r="B47" s="11">
         <v>0.5625</v>
       </c>
-      <c r="C47" s="3">
+      <c r="C47" s="11">
         <v>0.59375</v>
       </c>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
     </row>
     <row r="48" spans="1:5" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="3">
+      <c r="A48" s="13"/>
+      <c r="B48" s="11">
         <v>0.59375</v>
       </c>
-      <c r="C48" s="3">
+      <c r="C48" s="11">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
     </row>
     <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
+      <c r="A49" s="10">
         <v>43161</v>
       </c>
-      <c r="B49" s="3">
+      <c r="B49" s="11">
         <v>0.44444444444444442</v>
       </c>
-      <c r="C49" s="3">
+      <c r="C49" s="11">
         <v>0.47222222222222227</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="12" t="s">
         <v>49</v>
       </c>
+      <c r="E49" s="12"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B50" s="3">
+      <c r="A50" s="13"/>
+      <c r="B50" s="11">
         <v>0.47222222222222227</v>
       </c>
-      <c r="C50" s="3">
+      <c r="C50" s="11">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="12" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B51" s="3">
+      <c r="E50" s="12"/>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="20"/>
+      <c r="B51" s="15">
         <v>0.5625</v>
       </c>
-      <c r="C51" s="3">
+      <c r="C51" s="15">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="16" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="6">
+      <c r="E51" s="16"/>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="17">
         <v>43165</v>
       </c>
-      <c r="B52" s="3">
+      <c r="B52" s="18">
         <v>0.44444444444444442</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C52" s="18">
         <v>0.67013888888888884</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="19" t="s">
         <v>52</v>
       </c>
+      <c r="E52" s="19"/>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="6">
+      <c r="A53" s="10">
         <v>43167</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B53" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C53" s="3">
+      <c r="C53" s="11">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="12" t="s">
         <v>53</v>
       </c>
+      <c r="E53" s="12"/>
     </row>
     <row r="54" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B54" s="3">
+      <c r="A54" s="13"/>
+      <c r="B54" s="11">
         <v>0.41666666666666669</v>
       </c>
-      <c r="C54" s="3">
+      <c r="C54" s="11">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="12" t="s">
         <v>54</v>
       </c>
+      <c r="E54" s="12"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B55" s="3">
+      <c r="A55" s="13"/>
+      <c r="B55" s="11">
         <v>0.45833333333333331</v>
       </c>
-      <c r="C55" s="3">
+      <c r="C55" s="11">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="12" t="s">
         <v>55</v>
       </c>
+      <c r="E55" s="12"/>
     </row>
     <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B56" s="3">
+      <c r="A56" s="13"/>
+      <c r="B56" s="11">
         <v>0.5625</v>
       </c>
-      <c r="C56" s="3">
+      <c r="C56" s="11">
         <v>0.59375</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="12" t="s">
         <v>56</v>
       </c>
+      <c r="E56" s="12"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B57" s="3">
+      <c r="A57" s="13"/>
+      <c r="B57" s="11">
         <v>0.63888888888888895</v>
       </c>
-      <c r="C57" s="3">
+      <c r="C57" s="11">
         <v>0.67361111111111116</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="12" t="s">
         <v>57</v>
       </c>
+      <c r="E57" s="12"/>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="6">
+      <c r="A58" s="10">
         <v>43168</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B58" s="11">
         <v>0.44097222222222227</v>
       </c>
-      <c r="C58" s="3">
+      <c r="C58" s="11">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D58" s="12" t="s">
+      <c r="D58" s="27" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B59" s="3">
+      <c r="E58" s="12"/>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="20"/>
+      <c r="B59" s="15">
         <v>0.5625</v>
       </c>
-      <c r="C59" s="3">
+      <c r="C59" s="15">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D59" s="12"/>
-    </row>
-    <row r="60" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A60" s="6">
+      <c r="D59" s="28"/>
+      <c r="E59" s="16"/>
+    </row>
+    <row r="60" spans="1:5" ht="60.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="17">
         <v>43172</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B60" s="18">
         <v>0.44444444444444442</v>
       </c>
-      <c r="C60" s="3">
+      <c r="C60" s="18">
         <v>0.67013888888888884</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="6">
+      <c r="A61" s="10">
         <v>43174</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B61" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C61" s="3">
+      <c r="C61" s="11">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D61" s="12" t="s">
+      <c r="D61" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="E61" s="12" t="s">
+      <c r="E61" s="27" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B62" s="3">
+      <c r="A62" s="13"/>
+      <c r="B62" s="11">
         <v>0.5625</v>
       </c>
-      <c r="C62" s="3">
+      <c r="C62" s="11">
         <v>0.59375</v>
       </c>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
     </row>
     <row r="63" spans="1:5" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B63" s="3">
+      <c r="A63" s="13"/>
+      <c r="B63" s="11">
         <v>0.63888888888888895</v>
       </c>
-      <c r="C63" s="3">
+      <c r="C63" s="11">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12"/>
+      <c r="D63" s="27"/>
+      <c r="E63" s="27"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A64" s="6">
+      <c r="A64" s="10">
         <v>43175</v>
       </c>
-      <c r="B64" s="3">
+      <c r="B64" s="11">
         <v>0.47916666666666669</v>
       </c>
-      <c r="C64" s="3">
+      <c r="C64" s="11">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="12" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B65" s="3">
+      <c r="A65" s="13"/>
+      <c r="B65" s="11">
         <v>0.5625</v>
       </c>
-      <c r="C65" s="3">
+      <c r="C65" s="11">
         <v>0.60416666666666663</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="12" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B66" s="3">
+      <c r="E65" s="12"/>
+    </row>
+    <row r="66" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="20"/>
+      <c r="B66" s="15">
         <v>0.60416666666666663</v>
       </c>
-      <c r="C66" s="3">
+      <c r="C66" s="15">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="16" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="6">
+      <c r="E66" s="16"/>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="17">
         <v>43179</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B67" s="18">
         <v>0.44444444444444442</v>
       </c>
-      <c r="C67" s="3">
+      <c r="C67" s="18">
         <v>0.51041666666666663</v>
       </c>
-      <c r="D67" s="7" t="s">
+      <c r="D67" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" s="19" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="3">
+      <c r="A68" s="13"/>
+      <c r="B68" s="11">
         <v>0.5625</v>
       </c>
-      <c r="C68" s="3">
+      <c r="C68" s="11">
         <v>0.60069444444444442</v>
       </c>
-      <c r="D68" s="7"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="12"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B69" s="3">
+      <c r="A69" s="13"/>
+      <c r="B69" s="11">
         <v>0.60069444444444442</v>
       </c>
-      <c r="C69" s="3">
+      <c r="C69" s="11">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D69" s="12" t="s">
         <v>66</v>
       </c>
+      <c r="E69" s="12"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="6">
+      <c r="A70" s="10">
         <v>43181</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B70" s="11">
         <v>0.33333333333333331</v>
       </c>
-      <c r="C70" s="3">
+      <c r="C70" s="11">
         <v>0.44444444444444442</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D70" s="12" t="s">
         <v>68</v>
       </c>
+      <c r="E70" s="12"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B71" s="3">
+      <c r="A71" s="13"/>
+      <c r="B71" s="11">
         <v>0.44444444444444442</v>
       </c>
-      <c r="C71" s="3">
+      <c r="C71" s="11">
         <v>0.70486111111111116</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D71" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E71" s="12"/>
+    </row>
+    <row r="72" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="14">
+        <v>43182</v>
+      </c>
+      <c r="B72" s="15">
+        <v>0.47569444444444442</v>
+      </c>
+      <c r="C72" s="15">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="D72" s="16" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A72" s="6">
-        <v>43182</v>
-      </c>
-      <c r="B72" s="3">
-        <v>0.47569444444444442</v>
-      </c>
-      <c r="C72" s="3">
+      <c r="E72" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="30.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="6">
+        <v>43186</v>
+      </c>
+      <c r="B73" s="3">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="C73" s="3">
+        <v>0.51041666666666663</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B74" s="3">
+        <v>0.5625</v>
+      </c>
+      <c r="C74" s="3">
         <v>0.62847222222222221</v>
       </c>
-      <c r="D72" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
+      <c r="D74" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
+      <c r="B75" s="3">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B76" s="3"/>
